--- a/DRL_UTE/Doc/FileUpload/Lop.xlsx
+++ b/DRL_UTE/Doc/FileUpload/Lop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\EXCEL_AVT_MẪU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB470D4-06B3-44B3-BA06-612A0F76A808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F177A51D-4461-4A2A-9E29-0634CB96E5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3F602799-0881-40F7-9E8A-656D3A9AF0EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F602799-0881-40F7-9E8A-656D3A9AF0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>khoaHoc</t>
   </si>
   <si>
-    <t>CNTT4</t>
+    <t>CNTT 6</t>
   </si>
   <si>
-    <t>30T26</t>
+    <t>17T9</t>
   </si>
 </sst>
 </file>
@@ -421,12 +421,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -448,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
